--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.62548246383667</v>
+        <v>12.72143821716309</v>
       </c>
       <c r="C2">
-        <v>0.3316211649399378</v>
+        <v>0.2078815276608318</v>
       </c>
       <c r="D2">
-        <v>0.06481866836547852</v>
+        <v>0.1082039356231689</v>
       </c>
       <c r="E2">
-        <v>0.003247140184749568</v>
+        <v>0.003902385627219728</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79017515182495</v>
+        <v>25.47710103988647</v>
       </c>
       <c r="C3">
-        <v>0.4733265451965631</v>
+        <v>0.2674809577460982</v>
       </c>
       <c r="D3">
-        <v>0.08150525093078613</v>
+        <v>0.1107967376708984</v>
       </c>
       <c r="E3">
-        <v>0.01084648927427341</v>
+        <v>0.02027837952854902</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.85147376060486</v>
+        <v>50.76614842414856</v>
       </c>
       <c r="C4">
-        <v>0.6551315395127335</v>
+        <v>0.6112213655485355</v>
       </c>
       <c r="D4">
-        <v>0.09521093368530273</v>
+        <v>0.1332760810852051</v>
       </c>
       <c r="E4">
-        <v>0.004896059622134388</v>
+        <v>0.005202575501556201</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.673577928543091</v>
+        <v>12.9547595500946</v>
       </c>
       <c r="C5">
-        <v>0.2872718612887337</v>
+        <v>0.2174443775637191</v>
       </c>
       <c r="D5">
-        <v>0.07917842864990235</v>
+        <v>0.1128962993621826</v>
       </c>
       <c r="E5">
-        <v>0.007248351694071355</v>
+        <v>0.006259635312538567</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.22370796203613</v>
+        <v>25.65407638549805</v>
       </c>
       <c r="C6">
-        <v>0.4512721608042942</v>
+        <v>0.3931169679825094</v>
       </c>
       <c r="D6">
-        <v>0.08139476776123047</v>
+        <v>0.1264761447906494</v>
       </c>
       <c r="E6">
-        <v>0.006898139780948857</v>
+        <v>0.01030238858589785</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.57303085327148</v>
+        <v>50.61647262573242</v>
       </c>
       <c r="C7">
-        <v>0.6481019197229818</v>
+        <v>0.5651707109920429</v>
       </c>
       <c r="D7">
-        <v>0.08718938827514648</v>
+        <v>0.1357133388519287</v>
       </c>
       <c r="E7">
-        <v>0.006958728637461748</v>
+        <v>0.003452453283909329</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.484266233444213</v>
+        <v>13.0825984954834</v>
       </c>
       <c r="C8">
-        <v>0.3006599403696946</v>
+        <v>0.1303314477818992</v>
       </c>
       <c r="D8">
-        <v>0.07649240493774415</v>
+        <v>0.1107006072998047</v>
       </c>
       <c r="E8">
-        <v>0.007245175077827039</v>
+        <v>0.001320962185737721</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.49487466812134</v>
+        <v>25.46906189918518</v>
       </c>
       <c r="C9">
-        <v>0.3711644426308435</v>
+        <v>0.3194769322943483</v>
       </c>
       <c r="D9">
-        <v>0.07645525932312011</v>
+        <v>0.1188719272613525</v>
       </c>
       <c r="E9">
-        <v>0.006744637639995292</v>
+        <v>0.004125595222288845</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04013228416443</v>
+        <v>50.53322124481201</v>
       </c>
       <c r="C10">
-        <v>0.7021798280854965</v>
+        <v>0.2714496798466339</v>
       </c>
       <c r="D10">
-        <v>0.08423423767089844</v>
+        <v>0.1345751285552979</v>
       </c>
       <c r="E10">
-        <v>0.006312403305637114</v>
+        <v>0.004472752616304528</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.10683832168579</v>
+        <v>20.23283696174622</v>
       </c>
       <c r="C11">
-        <v>0.3811400871137974</v>
+        <v>0.1969312202015653</v>
       </c>
       <c r="D11">
-        <v>0.07149510383605957</v>
+        <v>0.1212438106536865</v>
       </c>
       <c r="E11">
-        <v>0.006870981091375395</v>
+        <v>0.003255197146344954</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.71303915977478</v>
+        <v>40.04911518096924</v>
       </c>
       <c r="C12">
-        <v>0.4379714338276259</v>
+        <v>0.6178085997140768</v>
       </c>
       <c r="D12">
-        <v>0.09698319435119629</v>
+        <v>0.1394280910491943</v>
       </c>
       <c r="E12">
-        <v>0.01805404604506952</v>
+        <v>0.007746621870832012</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50.78464727401733</v>
+        <v>79.70222887992858</v>
       </c>
       <c r="C13">
-        <v>1.312121944504874</v>
+        <v>0.4407695128429326</v>
       </c>
       <c r="D13">
-        <v>0.09447154998779297</v>
+        <v>0.1528432369232178</v>
       </c>
       <c r="E13">
-        <v>0.008514192348719056</v>
+        <v>0.00646909684005972</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.12602472305298</v>
+        <v>20.68602900505066</v>
       </c>
       <c r="C14">
-        <v>0.2925237509349825</v>
+        <v>0.1116218089788795</v>
       </c>
       <c r="D14">
-        <v>0.07225542068481446</v>
+        <v>0.1208156108856201</v>
       </c>
       <c r="E14">
-        <v>0.007811839772663238</v>
+        <v>0.005162160705180835</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.84309954643249</v>
+        <v>40.14935789108277</v>
       </c>
       <c r="C15">
-        <v>0.7333801444795837</v>
+        <v>0.4570996094878389</v>
       </c>
       <c r="D15">
-        <v>0.08415393829345703</v>
+        <v>0.1308889389038086</v>
       </c>
       <c r="E15">
-        <v>0.006046942410362769</v>
+        <v>0.0001755053557967799</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50.86183443069458</v>
+        <v>79.22563896179199</v>
       </c>
       <c r="C16">
-        <v>1.045839596792471</v>
+        <v>0.9137832332105184</v>
       </c>
       <c r="D16">
-        <v>0.1077631950378418</v>
+        <v>0.1566103935241699</v>
       </c>
       <c r="E16">
-        <v>0.01113859870986162</v>
+        <v>0.007926936061250009</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.07595529556274</v>
+        <v>20.28628325462341</v>
       </c>
       <c r="C17">
-        <v>0.2689073661492667</v>
+        <v>0.242391031789739</v>
       </c>
       <c r="D17">
-        <v>0.0747347354888916</v>
+        <v>0.1206027030944824</v>
       </c>
       <c r="E17">
-        <v>0.006920280513147519</v>
+        <v>0.005876897734443056</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.60580759048462</v>
+        <v>39.99532442092895</v>
       </c>
       <c r="C18">
-        <v>0.8543702137045873</v>
+        <v>0.4617668894175236</v>
       </c>
       <c r="D18">
-        <v>0.07609438896179199</v>
+        <v>0.1301152229309082</v>
       </c>
       <c r="E18">
-        <v>0.01124364553785854</v>
+        <v>0.005828360418484398</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>39.73499798774719</v>
+        <v>73.04171614646911</v>
       </c>
       <c r="C19">
-        <v>2.337192090206129</v>
+        <v>1.200618840121345</v>
       </c>
       <c r="D19">
-        <v>0.0593785285949707</v>
+        <v>0.1157664775848389</v>
       </c>
       <c r="E19">
-        <v>0.01110083775769429</v>
+        <v>0.01504710371159701</v>
       </c>
       <c r="F19">
         <v>2</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_nrs.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.72143821716309</v>
+        <v>8.62548246383667</v>
       </c>
       <c r="C2">
-        <v>0.2078815276608318</v>
+        <v>0.3316211649399378</v>
       </c>
       <c r="D2">
-        <v>0.1082039356231689</v>
+        <v>0.06481866836547852</v>
       </c>
       <c r="E2">
-        <v>0.003902385627219728</v>
+        <v>0.003247140184749568</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.47710103988647</v>
+        <v>16.79017515182495</v>
       </c>
       <c r="C3">
-        <v>0.2674809577460982</v>
+        <v>0.4733265451965631</v>
       </c>
       <c r="D3">
-        <v>0.1107967376708984</v>
+        <v>0.08150525093078613</v>
       </c>
       <c r="E3">
-        <v>0.02027837952854902</v>
+        <v>0.01084648927427341</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50.76614842414856</v>
+        <v>32.85147376060486</v>
       </c>
       <c r="C4">
-        <v>0.6112213655485355</v>
+        <v>0.6551315395127335</v>
       </c>
       <c r="D4">
-        <v>0.1332760810852051</v>
+        <v>0.09521093368530273</v>
       </c>
       <c r="E4">
-        <v>0.005202575501556201</v>
+        <v>0.004896059622134388</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.9547595500946</v>
+        <v>8.673577928543091</v>
       </c>
       <c r="C5">
-        <v>0.2174443775637191</v>
+        <v>0.2872718612887337</v>
       </c>
       <c r="D5">
-        <v>0.1128962993621826</v>
+        <v>0.07917842864990235</v>
       </c>
       <c r="E5">
-        <v>0.006259635312538567</v>
+        <v>0.007248351694071355</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.65407638549805</v>
+        <v>17.22370796203613</v>
       </c>
       <c r="C6">
-        <v>0.3931169679825094</v>
+        <v>0.4512721608042942</v>
       </c>
       <c r="D6">
-        <v>0.1264761447906494</v>
+        <v>0.08139476776123047</v>
       </c>
       <c r="E6">
-        <v>0.01030238858589785</v>
+        <v>0.006898139780948857</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50.61647262573242</v>
+        <v>32.57303085327148</v>
       </c>
       <c r="C7">
-        <v>0.5651707109920429</v>
+        <v>0.6481019197229818</v>
       </c>
       <c r="D7">
-        <v>0.1357133388519287</v>
+        <v>0.08718938827514648</v>
       </c>
       <c r="E7">
-        <v>0.003452453283909329</v>
+        <v>0.006958728637461748</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.0825984954834</v>
+        <v>8.484266233444213</v>
       </c>
       <c r="C8">
-        <v>0.1303314477818992</v>
+        <v>0.3006599403696946</v>
       </c>
       <c r="D8">
-        <v>0.1107006072998047</v>
+        <v>0.07649240493774415</v>
       </c>
       <c r="E8">
-        <v>0.001320962185737721</v>
+        <v>0.007245175077827039</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.46906189918518</v>
+        <v>16.49487466812134</v>
       </c>
       <c r="C9">
-        <v>0.3194769322943483</v>
+        <v>0.3711644426308435</v>
       </c>
       <c r="D9">
-        <v>0.1188719272613525</v>
+        <v>0.07645525932312011</v>
       </c>
       <c r="E9">
-        <v>0.004125595222288845</v>
+        <v>0.006744637639995292</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.53322124481201</v>
+        <v>33.04013228416443</v>
       </c>
       <c r="C10">
-        <v>0.2714496798466339</v>
+        <v>0.7021798280854965</v>
       </c>
       <c r="D10">
-        <v>0.1345751285552979</v>
+        <v>0.08423423767089844</v>
       </c>
       <c r="E10">
-        <v>0.004472752616304528</v>
+        <v>0.006312403305637114</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.23283696174622</v>
+        <v>13.10683832168579</v>
       </c>
       <c r="C11">
-        <v>0.1969312202015653</v>
+        <v>0.3811400871137974</v>
       </c>
       <c r="D11">
-        <v>0.1212438106536865</v>
+        <v>0.07149510383605957</v>
       </c>
       <c r="E11">
-        <v>0.003255197146344954</v>
+        <v>0.006870981091375395</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>40.04911518096924</v>
+        <v>25.71303915977478</v>
       </c>
       <c r="C12">
-        <v>0.6178085997140768</v>
+        <v>0.4379714338276259</v>
       </c>
       <c r="D12">
-        <v>0.1394280910491943</v>
+        <v>0.09698319435119629</v>
       </c>
       <c r="E12">
-        <v>0.007746621870832012</v>
+        <v>0.01805404604506952</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79.70222887992858</v>
+        <v>50.78464727401733</v>
       </c>
       <c r="C13">
-        <v>0.4407695128429326</v>
+        <v>1.312121944504874</v>
       </c>
       <c r="D13">
-        <v>0.1528432369232178</v>
+        <v>0.09447154998779297</v>
       </c>
       <c r="E13">
-        <v>0.00646909684005972</v>
+        <v>0.008514192348719056</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.68602900505066</v>
+        <v>13.12602472305298</v>
       </c>
       <c r="C14">
-        <v>0.1116218089788795</v>
+        <v>0.2925237509349825</v>
       </c>
       <c r="D14">
-        <v>0.1208156108856201</v>
+        <v>0.07225542068481446</v>
       </c>
       <c r="E14">
-        <v>0.005162160705180835</v>
+        <v>0.007811839772663238</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40.14935789108277</v>
+        <v>25.84309954643249</v>
       </c>
       <c r="C15">
-        <v>0.4570996094878389</v>
+        <v>0.7333801444795837</v>
       </c>
       <c r="D15">
-        <v>0.1308889389038086</v>
+        <v>0.08415393829345703</v>
       </c>
       <c r="E15">
-        <v>0.0001755053557967799</v>
+        <v>0.006046942410362769</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79.22563896179199</v>
+        <v>50.86183443069458</v>
       </c>
       <c r="C16">
-        <v>0.9137832332105184</v>
+        <v>1.045839596792471</v>
       </c>
       <c r="D16">
-        <v>0.1566103935241699</v>
+        <v>0.1077631950378418</v>
       </c>
       <c r="E16">
-        <v>0.007926936061250009</v>
+        <v>0.01113859870986162</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.28628325462341</v>
+        <v>13.07595529556274</v>
       </c>
       <c r="C17">
-        <v>0.242391031789739</v>
+        <v>0.2689073661492667</v>
       </c>
       <c r="D17">
-        <v>0.1206027030944824</v>
+        <v>0.0747347354888916</v>
       </c>
       <c r="E17">
-        <v>0.005876897734443056</v>
+        <v>0.006920280513147519</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.99532442092895</v>
+        <v>25.60580759048462</v>
       </c>
       <c r="C18">
-        <v>0.4617668894175236</v>
+        <v>0.8543702137045873</v>
       </c>
       <c r="D18">
-        <v>0.1301152229309082</v>
+        <v>0.07609438896179199</v>
       </c>
       <c r="E18">
-        <v>0.005828360418484398</v>
+        <v>0.01124364553785854</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>73.04171614646911</v>
+        <v>39.73499798774719</v>
       </c>
       <c r="C19">
-        <v>1.200618840121345</v>
+        <v>2.337192090206129</v>
       </c>
       <c r="D19">
-        <v>0.1157664775848389</v>
+        <v>0.0593785285949707</v>
       </c>
       <c r="E19">
-        <v>0.01504710371159701</v>
+        <v>0.01110083775769429</v>
       </c>
       <c r="F19">
         <v>2</v>
